--- a/pred_ohlcv/54_23/2019-10-09 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-09 PPT ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -530,7 +530,7 @@
         <v>1580</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -553,10 +553,10 @@
         <v>1574</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         <v>1595</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -599,10 +599,10 @@
         <v>1595</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>1597</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -645,10 +645,10 @@
         <v>1597</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -668,10 +668,10 @@
         <v>1624</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -691,7 +691,7 @@
         <v>1570</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>1621</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -737,7 +737,7 @@
         <v>1610</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -760,7 +760,7 @@
         <v>1577</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -783,10 +783,10 @@
         <v>1576</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -806,10 +806,10 @@
         <v>1576</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1289,7 +1289,7 @@
         <v>1435</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3313,10 +3313,10 @@
         <v>1588</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3382,10 +3382,10 @@
         <v>1589</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3405,10 +3405,10 @@
         <v>1590</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3428,10 +3428,10 @@
         <v>1589</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3451,10 +3451,10 @@
         <v>1481</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3934,7 +3934,7 @@
         <v>1602</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>1619</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>1624</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -4026,7 +4026,7 @@
         <v>1610</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -4049,7 +4049,7 @@
         <v>1505</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -7571,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>